--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86921.61201880327</v>
+        <v>86921.61201880329</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-83569.94855143134</v>
+        <v>-83569.94855143128</v>
       </c>
       <c r="F6" t="n">
         <v>49530.0514485687</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86921.61201880329</v>
+        <v>100647.9701562215</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-83569.94855143128</v>
+        <v>-83569.94855143134</v>
       </c>
       <c r="F6" t="n">
         <v>49530.0514485687</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100647.9701562215</v>
+        <v>-57104.32544716141</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12774065.44955054</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>27049698.07377627</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1075927.33772231</v>
+        <v>1499329.976826475</v>
       </c>
     </row>
     <row r="11">
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22728,7 +22728,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>129.0132581705354</v>
@@ -22749,7 +22749,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,31 +22807,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>126.8376266666667</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23205,7 +23205,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23439,7 +23439,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>94.30397654773019</v>
@@ -23460,7 +23460,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23594,10 +23594,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>80.29914934735042</v>
@@ -23621,7 +23621,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,10 +23676,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>90.4687457914608</v>
@@ -23694,10 +23694,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23831,10 +23831,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
@@ -23913,10 +23913,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>90.4687457914608</v>
@@ -23931,10 +23931,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -24150,7 +24150,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>94.30397654773019</v>
@@ -24165,13 +24165,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24305,7 +24305,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>93.17061249236157</v>
@@ -24332,7 +24332,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24387,7 +24387,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
@@ -24402,13 +24402,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24624,28 +24624,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24727,7 +24727,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24861,10 +24861,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>90.4687457914608</v>
@@ -24882,7 +24882,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -25098,7 +25098,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>94.30397654773019</v>
@@ -25119,7 +25119,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25201,7 +25201,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25356,7 +25356,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25438,7 +25438,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25572,28 +25572,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25730,7 +25730,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25751,7 +25751,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>123.5547069419379</v>
@@ -25809,10 +25809,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>90.4687457914608</v>
@@ -25830,7 +25830,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25964,10 +25964,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25988,10 +25988,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.467395673505962e-12</v>
+        <v>43499.57190143183</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.467395673505962e-12</v>
+        <v>199499.7957018867</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.467395673505962e-12</v>
+        <v>36973.83482801483</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>123997.2149583463</v>
+        <v>128213.7288655866</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>123997.2149583463</v>
+        <v>147759.0951932252</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>123997.2149583463</v>
+        <v>144333.1343232252</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>123997.2149583463</v>
+        <v>136641.0830648582</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>123997.2149583463</v>
+        <v>140829.1076652607</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>123997.2149583463</v>
+        <v>139887.5358687938</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>123997.2149583463</v>
+        <v>141516.1512303735</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123997.2149583463</v>
+        <v>128213.7288655866</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123997.2149583463</v>
+        <v>136065.8979490922</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123997.2149583463</v>
+        <v>174788.5505336105</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123997.2149583463</v>
+        <v>146354.742720778</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>123997.2149583463</v>
+        <v>142308.904013007</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12866.07056239533</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>59006.98182731862</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10935.92297730017</v>
       </c>
       <c r="E2" t="n">
-        <v>53141.66355357703</v>
+        <v>54388.80146980301</v>
       </c>
       <c r="F2" t="n">
-        <v>53141.66355357703</v>
+        <v>60169.82531318907</v>
       </c>
       <c r="G2" t="n">
-        <v>53141.66355357703</v>
+        <v>59156.51294318907</v>
       </c>
       <c r="H2" t="n">
-        <v>53141.66355357703</v>
+        <v>56881.39919071431</v>
       </c>
       <c r="I2" t="n">
-        <v>53141.66355357703</v>
+        <v>58120.11069224181</v>
       </c>
       <c r="J2" t="n">
-        <v>53141.66355357703</v>
+        <v>57841.61762568119</v>
       </c>
       <c r="K2" t="n">
-        <v>53141.66355357703</v>
+        <v>58323.32076079633</v>
       </c>
       <c r="L2" t="n">
-        <v>53141.66355357703</v>
+        <v>54388.80146980299</v>
       </c>
       <c r="M2" t="n">
-        <v>53141.66355357703</v>
+        <v>56711.2740156286</v>
       </c>
       <c r="N2" t="n">
-        <v>53141.66355357703</v>
+        <v>68164.45294907766</v>
       </c>
       <c r="O2" t="n">
-        <v>53141.66355357703</v>
+        <v>59754.4534551413</v>
       </c>
       <c r="P2" t="n">
-        <v>53141.66355357703</v>
+        <v>58557.79693594142</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>13478.74058917607</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>61816.83810481</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11456.68121431446</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1306.525436046267</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7362.836129117392</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6301.27078911739</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3917.818286524793</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5215.516050029794</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4923.761408871049</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5428.402788515476</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1306.525436046267</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3739.59191262549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>15738.16031909593</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6927.684658781644</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5674.044495810342</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-83569.94855143134</v>
+        <v>-101565.4373907252</v>
       </c>
       <c r="F6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927479</v>
       </c>
       <c r="G6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927479</v>
       </c>
       <c r="H6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927478</v>
       </c>
       <c r="I6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927479</v>
       </c>
       <c r="J6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927479</v>
       </c>
       <c r="K6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927479</v>
       </c>
       <c r="L6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927479</v>
       </c>
       <c r="M6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927478</v>
       </c>
       <c r="N6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927478</v>
       </c>
       <c r="O6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927478</v>
       </c>
       <c r="P6" t="n">
-        <v>49530.0514485687</v>
+        <v>31534.56260927479</v>
       </c>
     </row>
   </sheetData>
